--- a/doc/diagram.xlsx
+++ b/doc/diagram.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -67,16 +67,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>64994</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -91,8 +91,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="266700" y="1848971"/>
-          <a:ext cx="14984506" cy="5799604"/>
+          <a:off x="6116170" y="2263588"/>
+          <a:ext cx="14872447" cy="5266764"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -121,8 +121,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>Project root directory</a:t>
+            <a:rPr lang="en-US" sz="1300" b="1"/>
+            <a:t>Project root</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -131,16 +131,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>482973</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182654</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -155,8 +155,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="666749" y="4648200"/>
-          <a:ext cx="2743200" cy="1828800"/>
+          <a:off x="6534149" y="5141259"/>
+          <a:ext cx="2725270" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -186,7 +186,7 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -198,7 +198,7 @@
             <a:t>src</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -209,7 +209,7 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1200">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -274,98 +274,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>526675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Rounded Rectangle 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2981324" y="361950"/>
-          <a:ext cx="2743200" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
-            <a:t>pysniff</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>22410</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>327210</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>226357</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177614</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -380,7 +298,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9099175" y="2371725"/>
+          <a:off x="15049499" y="2920814"/>
           <a:ext cx="2725270" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -412,7 +330,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="en-US" sz="1200" b="1"/>
             <a:t>.gitignore</a:t>
           </a:r>
         </a:p>
@@ -591,16 +509,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>486335</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>89647</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>307040</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>181535</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>13447</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>2240</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -615,7 +533,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3511923" y="2375647"/>
+          <a:off x="9383805" y="2868706"/>
           <a:ext cx="2720788" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -647,7 +565,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -801,16 +719,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254373</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>119903</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>75078</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>41462</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>554690</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>43703</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>375395</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>155762</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -825,7 +743,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6305549" y="2405903"/>
+          <a:off x="12177431" y="2898962"/>
           <a:ext cx="2720788" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -857,7 +775,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -972,16 +890,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>27453</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>101974</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>453277</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23533</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>332254</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>25774</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152959</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>137833</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -996,8 +914,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="637053" y="2387974"/>
-          <a:ext cx="2743201" cy="1828800"/>
+          <a:off x="6504453" y="2881033"/>
+          <a:ext cx="2725271" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -1028,7 +946,7 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
+            <a:rPr lang="en-US" sz="1200" b="1">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -1106,16 +1024,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>316004</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>11204</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1130,146 +1048,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3543299" y="4648200"/>
-          <a:ext cx="2743200" cy="1828800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent3">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent3"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent3"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>packet_config</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Configuration files for each frame type</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>- config_XXX.ini files ( XXX = fram</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>e type)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>282388</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>53788</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>582705</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Rounded Rectangle 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566C5CE1-3AB0-4787-AD46-B648FD222B07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6333564" y="4625788"/>
+          <a:off x="9392769" y="5141259"/>
           <a:ext cx="2720788" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1300,6 +1079,23 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>packet_config</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -1309,19 +1105,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>capture - git</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ignored</a:t>
+            <a:t>-------------------------------------------------------</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -1329,16 +1113,16 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Configuration files for each frame type</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -1346,52 +1130,31 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Wireshark</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> pcapng capture files</a:t>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-------------------------------------------------------</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- config_XXX.ini files ( XXX = fram</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>e type)</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -1400,23 +1163,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>154640</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>71717</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>103093</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>165847</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>454958</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>186017</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>403410</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Rounded Rectangle 1">
+        <xdr:cNvPr id="12" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6AD75F-72BF-48D2-9B97-F64CBDC47063}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566C5CE1-3AB0-4787-AD46-B648FD222B07}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1424,7 +1187,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9231405" y="4643717"/>
+          <a:off x="12205446" y="5118847"/>
           <a:ext cx="2720788" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1454,23 +1217,35 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>capture (git</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ignored)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -1481,19 +1256,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>log - git</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> ignored</a:t>
+            <a:t>-------------------------------------------------------</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -1501,23 +1264,6 @@
         </a:p>
         <a:p>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
@@ -1527,7 +1273,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Test logs</a:t>
+            <a:t>Wireshark</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> pcapng capture files</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100">
             <a:effectLst/>
@@ -1560,23 +1318,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>542365</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>67234</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>580463</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>183776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>237564</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>181534</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>275663</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>107576</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Rounded Rectangle 1">
+        <xdr:cNvPr id="13" name="Rounded Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255A923B-C393-4288-BD02-26275065782C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA6AD75F-72BF-48D2-9B97-F64CBDC47063}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1342,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12039600" y="4639234"/>
+          <a:off x="15103287" y="5136776"/>
           <a:ext cx="2720788" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1614,6 +1372,52 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>log (git</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> ignored)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -1624,9 +1428,123 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
+            <a:t>-------------------------------------------------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Test logs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-------------------------------------------------------</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>463923</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>159123</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>91887</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{255A923B-C393-4288-BD02-26275065782C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18012335" y="5121087"/>
+          <a:ext cx="2720788" cy="1828800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>doc</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
+          <a:endParaRPr lang="en-US" sz="1200">
             <a:effectLst/>
           </a:endParaRPr>
         </a:p>
@@ -1833,15 +1751,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>280147</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:colOff>112058</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>584948</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>80682</xdr:rowOff>
+      <xdr:colOff>416859</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>24653</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1856,7 +1774,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="885265" y="8538882"/>
+          <a:off x="717176" y="8673353"/>
           <a:ext cx="2725271" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1962,6 +1880,814 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>246529</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>273423</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>87405</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="Group 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30C8600D-C285-4150-8595-E59708BC9FE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15979588" y="7631205"/>
+          <a:ext cx="3657600" cy="2743200"/>
+          <a:chOff x="15945970" y="6745941"/>
+          <a:chExt cx="3657600" cy="2743200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Rounded Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADF2410-5AA8-408F-B256-4DFB15071973}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15945970" y="6745941"/>
+            <a:ext cx="3657600" cy="2743200"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>capture</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Rounded Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03642F3-4A0D-4E90-A038-40EE986AF3FF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16378516" y="7167282"/>
+            <a:ext cx="2743200" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>xxxx.pcapng</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Wireshark capture files</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>477369</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>29136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>221875</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>105336</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="Group 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A101325E-483F-4860-8D97-785F4A7966E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16210428" y="13745136"/>
+          <a:ext cx="6400800" cy="2743200"/>
+          <a:chOff x="16053546" y="10529048"/>
+          <a:chExt cx="6400800" cy="2743200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Rounded Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20652898-A52A-4B6F-8755-D7E1A592E802}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16053546" y="10529048"/>
+            <a:ext cx="6400800" cy="2743200"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>log</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Rounded Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C76D6D-1D22-49FF-956F-4B9631AE23EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16340416" y="10961594"/>
+            <a:ext cx="2743200" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>log_this.txt</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Log txt file</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="22" name="Rounded Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC70019A-D4EF-4AC2-B83A-5956E3A54742}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19370486" y="10954871"/>
+            <a:ext cx="2743200" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>log_timestamp</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> folder</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Log</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> with timestamp folder for each run</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>472887</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>13448</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>217393</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Group 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82397408-32F4-4802-A00A-6B1BDC186671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16205946" y="10681448"/>
+          <a:ext cx="6400800" cy="2743200"/>
+          <a:chOff x="16053546" y="10529048"/>
+          <a:chExt cx="6400800" cy="2743200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="27" name="Rounded Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FD956E-79DE-4405-B227-6F5F556C7144}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16053546" y="10529048"/>
+            <a:ext cx="6400800" cy="2743200"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1"/>
+              <a:t>doc</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="Rounded Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EBBF28-B6BF-40C4-A699-A6CD75B9F4BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16340416" y="10961594"/>
+            <a:ext cx="2743200" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>diagram.xlsx</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Code structure diagram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="29" name="Rounded Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80A5698-7EF8-48F1-BCB7-CC7C8B93FDBB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19370486" y="10954871"/>
+            <a:ext cx="2743200" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>80211_Pocket_Reference_Guide.pdf</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Code structure diagram</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2290,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X78" sqref="X78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/doc/diagram.xlsx
+++ b/doc/diagram.xlsx
@@ -9,8 +9,37 @@
   <sheets>
     <sheet name="diagram" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>In config.ini, define enable flag</t>
+  </si>
+  <si>
+    <t>Flow of adding new packet type</t>
+  </si>
+  <si>
+    <t>Create /my_sniff/subtype/packet_type folder, and in this folder, create packet_type.py file which includes all fields and value define</t>
+  </si>
+  <si>
+    <t>In  /my_config/config_basic.py,  add func to get enable flag</t>
+  </si>
+  <si>
+    <t>In /packet_config/ folder, create config_xxx.ini (xxx is the packet type name), and update related fields. In /my_config/ folder, add config_xxx.py to get values from ini file</t>
+  </si>
+  <si>
+    <t>in my_flow.py, import config_xxx.py file</t>
+  </si>
+  <si>
+    <t>in my_flow.py, import packet_type.py file</t>
+  </si>
+  <si>
+    <t>update my_flow.py to add this packet type check section</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -85,8 +114,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3115395" y="1143000"/>
-          <a:ext cx="15254248" cy="5266764"/>
+          <a:off x="3084470" y="1143000"/>
+          <a:ext cx="15099621" cy="5266764"/>
           <a:chOff x="6051176" y="2274794"/>
           <a:chExt cx="15074154" cy="5266764"/>
         </a:xfrm>
@@ -1814,8 +1843,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20727440" y="12899571"/>
-          <a:ext cx="3700823" cy="2743200"/>
+          <a:off x="20523333" y="12899571"/>
+          <a:ext cx="3663712" cy="2743200"/>
           <a:chOff x="15945970" y="6745941"/>
           <a:chExt cx="3657600" cy="2743200"/>
         </a:xfrm>
@@ -2008,8 +2037,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20727440" y="6667500"/>
-          <a:ext cx="6452028" cy="2743200"/>
+          <a:off x="20523333" y="6667500"/>
+          <a:ext cx="6383992" cy="2743200"/>
           <a:chOff x="16053546" y="10529048"/>
           <a:chExt cx="6400800" cy="2743200"/>
         </a:xfrm>
@@ -2321,8 +2350,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20727440" y="9775371"/>
-          <a:ext cx="13562560" cy="2743200"/>
+          <a:off x="20523333" y="9775371"/>
+          <a:ext cx="13420303" cy="2743200"/>
           <a:chOff x="19451410" y="9829800"/>
           <a:chExt cx="13719042" cy="2743200"/>
         </a:xfrm>
@@ -3159,8 +3188,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="20727440" y="15947571"/>
-          <a:ext cx="3705306" cy="2743200"/>
+          <a:off x="20523333" y="15947571"/>
+          <a:ext cx="3668195" cy="2743200"/>
           <a:chOff x="15945970" y="6745941"/>
           <a:chExt cx="3657600" cy="2743200"/>
         </a:xfrm>
@@ -4074,8 +4103,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3084476" y="13781834"/>
-          <a:ext cx="6462295" cy="2743200"/>
+          <a:off x="3053551" y="13781834"/>
+          <a:ext cx="6400444" cy="2743200"/>
           <a:chOff x="16053546" y="10529048"/>
           <a:chExt cx="6400800" cy="2743200"/>
         </a:xfrm>
@@ -4484,8 +4513,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3061607" y="17311267"/>
-          <a:ext cx="9797143" cy="4953000"/>
+          <a:off x="3030682" y="17311267"/>
+          <a:ext cx="9698182" cy="4953000"/>
           <a:chOff x="3048000" y="17526000"/>
           <a:chExt cx="9753600" cy="4953000"/>
         </a:xfrm>
@@ -5351,8 +5380,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3198776" y="23050500"/>
-          <a:ext cx="11528316" cy="2743200"/>
+          <a:off x="3167851" y="23050500"/>
+          <a:ext cx="11410800" cy="2743200"/>
           <a:chOff x="3198776" y="23186571"/>
           <a:chExt cx="11528316" cy="2743200"/>
         </a:xfrm>
@@ -6482,7 +6511,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>my_logging.py</a:t>
+            <a:t>ctrl</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6497,7 +6526,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-------------------------------------------------------Logging related</a:t>
+            <a:t>---------------------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6512,8 +6541,56 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
+            <a:t>Control</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> packet</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -6586,7 +6663,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>my_matplotlib.py</a:t>
+            <a:t>data</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6601,7 +6678,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
+            <a:t>---------------------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6616,8 +6693,29 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Matplotlib related</a:t>
+            <a:t>Data</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> packet</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
@@ -6631,8 +6729,20 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
+            <a:t>---------------------------------------------------</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
@@ -6717,7 +6827,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>my_time.py</a:t>
+            <a:t>mgt</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6732,7 +6842,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-------------------------------------------------------Time stamp related</a:t>
+            <a:t>---------------------------------------------------</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6747,11 +6857,350 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>-------------------------------------------------------</a:t>
+            <a:t>Managetment packet</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>---------------------------------------------------</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>92777</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>105146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>415407</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>181346</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="87" name="Group 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82397408-32F4-4802-A00A-6B1BDC186671}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16458459" y="28680146"/>
+          <a:ext cx="6383993" cy="2743200"/>
+          <a:chOff x="16053546" y="10529048"/>
+          <a:chExt cx="6400800" cy="2743200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="88" name="Rounded Rectangle 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6FD956E-79DE-4405-B227-6F5F556C7144}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16053546" y="10529048"/>
+            <a:ext cx="6400800" cy="2743200"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:lnRef>
+          <a:fillRef idx="2">
+            <a:schemeClr val="dk1"/>
+          </a:fillRef>
+          <a:effectRef idx="1">
+            <a:schemeClr val="dk1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="7030A0"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>ctrl/data/mgt</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="Rounded Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9EBBF28-B6BF-40C4-A699-A6CD75B9F4BD}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16340416" y="10954871"/>
+            <a:ext cx="2743200" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>packet_type.py</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="91" name="Rounded Rectangle 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C80A5698-7EF8-48F1-BCB7-CC7C8B93FDBB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19370486" y="10954871"/>
+            <a:ext cx="2743200" cy="1828800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent5">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent5"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent5"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>layer_name.py</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:rPr>
+              <a:t>-------------------------------------------------------</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7044,14 +7493,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="F167:G174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N170" sqref="N170"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="167" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>0.1</v>
+      </c>
+      <c r="G169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G171" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>2</v>
+      </c>
+      <c r="G172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>2.1</v>
+      </c>
+      <c r="G173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
